--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,57 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,25 +725,28 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,8 +760,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -766,22 +769,25 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -807,23 +813,26 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +877,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E12" s="3">
         <v>51200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>58900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>85600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8800</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1068,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126900</v>
+      </c>
+      <c r="E17" s="3">
         <v>70200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>89300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,26 +1110,29 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-117300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-85900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,26 +1174,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,22 +1260,25 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1295,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1265,38 +1304,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-65200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-83000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-97200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-41300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-24400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1436,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-83000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-97200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-41300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1480,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-83300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-97600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-41500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,26 +1700,29 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1744,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-83300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-97600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-41500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1832,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-83300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-97600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-41500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1876,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +1963,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E41" s="3">
         <v>68700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3">
         <v>127700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>229700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,29 +2005,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E42" s="3">
         <v>251600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>301600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>50000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,8 +2040,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1960,23 +2049,26 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2084,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2001,22 +2093,25 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2033,8 +2128,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2042,32 +2137,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,32 +2181,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>292500</v>
+      </c>
+      <c r="E46" s="3">
         <v>329300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>401800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>269100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3">
         <v>182400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>230600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,32 +2225,35 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E47" s="3">
         <v>17100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,32 +2269,35 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E48" s="3">
         <v>35300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
         <v>19500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,31 +2313,34 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E49" s="3">
         <v>8600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2338,23 +2457,23 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2533,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>355200</v>
+      </c>
+      <c r="E54" s="3">
         <v>391600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>446500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>302000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3">
         <v>210800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>249600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2615,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E57" s="3">
         <v>20500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,29 +2657,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2559,8 +2692,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2568,32 +2701,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
         <v>3800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,32 +2745,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E60" s="3">
         <v>41100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48800</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,32 +2833,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E62" s="3">
         <v>13500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,32 +3009,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E66" s="3">
         <v>54500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3">
         <v>11900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3247,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-444700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-398300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>-249600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-110600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3423,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>294700</v>
+      </c>
+      <c r="E76" s="3">
         <v>337100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>393300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>251100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3">
         <v>198900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>235200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3511,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3560,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-83300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-97600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-41500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,8 +3651,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,8 +3886,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3699,8 +3915,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3757,8 +3977,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3880,8 +4109,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,8 +4318,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4102,8 +4347,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4143,8 +4391,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4158,8 +4406,11 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4184,8 +4435,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,28 +729,31 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E8" s="3">
         <v>9600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,8 +767,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -772,25 +776,28 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -816,26 +823,29 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,41 +891,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E12" s="3">
         <v>83300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>58900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>85600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,41 +1095,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E17" s="3">
         <v>126900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>89300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,29 +1140,32 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-130300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-117300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-65300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-85900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,29 +1208,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>5900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1263,25 +1300,28 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1338,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1307,41 +1347,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-128200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-111300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-83000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-97200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,41 +1488,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-128200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-111300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-83000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-97200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-41300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,41 +1535,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-111800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-83300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-97600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-41500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,29 +1770,32 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,41 +1817,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-111800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-83300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-97600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-41500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,41 +1911,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-111800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-83300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-97600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-41500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,46 +1958,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,35 +2050,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E41" s="3">
         <v>75900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3">
         <v>127700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>229700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,32 +2095,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E42" s="3">
         <v>200000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>251600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>301600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>50000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +2133,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2052,26 +2142,29 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,8 +2180,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2096,25 +2189,28 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2131,8 +2227,8 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2140,35 +2236,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,35 +2283,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>484900</v>
+      </c>
+      <c r="E46" s="3">
         <v>292500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>329300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>401800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>269100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3">
         <v>182400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>230600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,35 +2330,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E47" s="3">
         <v>16100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,35 +2377,38 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E48" s="3">
         <v>36400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3">
         <v>19500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,34 +2424,37 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E49" s="3">
         <v>8800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,35 +2565,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
       </c>
       <c r="F52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,35 +2659,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>548200</v>
+      </c>
+      <c r="E54" s="3">
         <v>355200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>391600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>446500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>302000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3">
         <v>210800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>249600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,35 +2746,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E57" s="3">
         <v>22700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,32 +2791,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>6500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,8 +2829,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2704,35 +2838,38 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E59" s="3">
         <v>17500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3">
         <v>3800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,35 +2885,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E60" s="3">
         <v>46600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3">
         <v>10300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,35 +2979,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E62" s="3">
         <v>13900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,35 +3167,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E66" s="3">
         <v>60500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3">
         <v>11900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,35 +3421,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-573300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-444700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-398300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>-249600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-110600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,35 +3609,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>465500</v>
+      </c>
+      <c r="E76" s="3">
         <v>294700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>337100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>393300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>251100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3">
         <v>198900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>235200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,46 +3703,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,41 +3755,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-111800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-83300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-97600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-41500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,8 +3853,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,8 +4103,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3918,8 +4135,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,8 +4201,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4310,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,8 +4342,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,8 +4564,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4350,8 +4596,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4394,8 +4643,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4409,8 +4658,11 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4438,8 +4690,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,31 +733,34 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E8" s="3">
         <v>19200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -770,8 +774,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -779,28 +783,31 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E9" s="3">
         <v>5000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -826,29 +833,32 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E10" s="3">
         <v>14200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,44 +905,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E12" s="3">
         <v>102000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>83300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>58900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>85600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1122,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>201300</v>
+      </c>
+      <c r="E17" s="3">
         <v>149500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>126900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>89300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,32 +1170,35 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-171600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-130300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-117300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-65300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-85900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,32 +1242,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,19 +1352,19 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1341,8 +1381,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1350,44 +1390,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-128200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-111300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-65200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-83000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-97200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-41300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1540,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-128200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-111300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-65200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-83000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-97200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-41300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1590,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-128600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-111800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-65400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-83300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-97600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-41500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,32 +1840,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,44 +1890,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-128600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-111800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-65400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-83300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-97600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-41500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +1990,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-128600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-111800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-65400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-83300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-97600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-41500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,49 +2040,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,38 +2137,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>442100</v>
+      </c>
+      <c r="E41" s="3">
         <v>258600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>127700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>229700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2185,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>744700</v>
+      </c>
+      <c r="E42" s="3">
         <v>205000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>251600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>301600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>200400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>50000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2226,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2145,29 +2235,32 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2192,28 +2285,31 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E44" s="3">
         <v>6600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2230,8 +2326,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2239,38 +2335,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,38 +2385,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E46" s="3">
         <v>484900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>292500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>329300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>401800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>269100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>182400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>230600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,38 +2435,41 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E47" s="3">
         <v>18200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,38 +2485,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E48" s="3">
         <v>34900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
         <v>19500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,37 +2535,40 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
         <v>8600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,38 +2685,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>1300</v>
       </c>
       <c r="G52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,38 +2785,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1297600</v>
+      </c>
+      <c r="E54" s="3">
         <v>548200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>355200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>391600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>446500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>302000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>210800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>249600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,38 +2877,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E57" s="3">
         <v>32400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,35 +2925,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2832,8 +2966,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2841,38 +2975,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E59" s="3">
         <v>19900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,38 +3025,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E60" s="3">
         <v>56600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,38 +3125,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E62" s="3">
         <v>26200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,38 +3325,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E66" s="3">
         <v>82700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>11900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,38 +3595,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-713600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-573300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-444700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-398300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-249600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-110600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,38 +3795,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1169300</v>
+      </c>
+      <c r="E76" s="3">
         <v>465500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>294700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>337100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>393300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>251100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>198900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>235200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,49 +3895,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,44 +3950,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-140300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-128600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-111800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-65400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-83300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-97600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-41500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,8 +4055,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,8 +4320,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4138,8 +4355,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4204,8 +4425,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,8 +4540,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4345,8 +4575,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4599,8 +4845,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4646,8 +4895,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4661,8 +4910,11 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4693,8 +4945,8 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,34 +737,37 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E8" s="3">
         <v>29700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -777,8 +781,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -786,31 +790,34 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>11800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -836,32 +843,35 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E10" s="3">
         <v>17900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +919,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>203900</v>
+      </c>
+      <c r="E12" s="3">
         <v>120700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>102000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>83300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>51200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>58900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>85600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1149,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>247200</v>
+      </c>
+      <c r="E17" s="3">
         <v>201300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>149500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>89300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,35 +1200,38 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-227100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-171600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-130300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-117300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-65300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-85900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,35 +1276,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>32100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,13 +1327,16 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-231700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1343,31 +1380,34 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1384,8 +1424,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1393,47 +1433,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-233100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-139600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-128200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-111300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-65200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-83000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-97200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-41300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1592,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-233100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-139600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-128200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-111300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-65200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-83000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-97200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-41300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1645,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-140300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-128600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-111800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-65400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-83300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-97600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-41500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,35 +1910,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-32100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,47 +1963,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-140300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-128600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-111800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-65400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-83300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-97600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-41500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2069,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-140300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-128600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-111800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-65400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-83300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-97600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-41500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2224,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1013400</v>
+      </c>
+      <c r="E41" s="3">
         <v>442100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>258600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>127700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>229700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2275,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>744700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>205000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>251600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>301600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>200400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>50000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2319,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2238,32 +2328,35 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2372,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2288,31 +2381,34 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E44" s="3">
         <v>13100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2329,8 +2425,8 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2338,41 +2434,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2487,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1049200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1216000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>484900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>292500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>329300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>401800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>269100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>182400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>230600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,41 +2540,44 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E47" s="3">
         <v>23400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,41 +2593,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E48" s="3">
         <v>46900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
         <v>19500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2547,31 +2658,31 @@
         <v>9400</v>
       </c>
       <c r="E49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F49" s="3">
         <v>8600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2697,32 +2817,32 @@
         <v>1900</v>
       </c>
       <c r="E52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>1300</v>
       </c>
       <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +2911,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1131300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1297600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>548200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>355200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>391600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>446500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>302000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>210800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>249600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,41 +3008,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E57" s="3">
         <v>62600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,38 +3059,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3103,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2978,41 +3112,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E59" s="3">
         <v>35400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3165,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E60" s="3">
         <v>98000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
         <v>10300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,41 +3271,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E62" s="3">
         <v>30300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3483,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E66" s="3">
         <v>128300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>11900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3769,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-946500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-713600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-573300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-444700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-398300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-249600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-110600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +3981,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1009700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1169300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>465500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>294700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>337100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>393300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>251100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>198900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>235200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4145,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-140300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-128600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-111800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-65400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-83300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-97600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-41500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,31 +4221,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4058,8 +4257,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,31 +4537,34 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-169500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4358,8 +4575,8 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,31 +4613,32 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4428,8 +4649,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,31 +4770,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>742000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4578,8 +4808,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,31 +5056,34 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4848,8 +5094,8 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4863,31 +5109,34 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4898,8 +5147,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4913,31 +5162,34 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>571300</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4948,8 +5200,8 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,37 +741,40 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E8" s="3">
         <v>20100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -784,8 +788,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -793,34 +797,37 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -846,35 +853,38 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,50 +933,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E12" s="3">
         <v>203900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>120700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>102000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>83300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>58900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>85600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E17" s="3">
         <v>247200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>201300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>149500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>126900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>89300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,38 +1230,41 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-170600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-227100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-171600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-130300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-117300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-65300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-85900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,38 +1310,39 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>32100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,17 +1364,20 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-231700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,25 +1432,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1427,8 +1467,8 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-233100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-139600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-128200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-111300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-83000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-97200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-41300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-24400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1532,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-233100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-139600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-128200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-111300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-65200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-83000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-97200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-41300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-232900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-140300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-128600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-111800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-65400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-83300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-97600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-41500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,38 +1980,41 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-32100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-232900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-140300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-128600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-111800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-65400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-83300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-97600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-41500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-232900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-140300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-128600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-111800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-65400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-83300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-97600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-41500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,44 +2311,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1766600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1013400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>442100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>258600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>63000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>127700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>229700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2287,32 +2377,32 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>744700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>205000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>251600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>301600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
         <v>50000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2412,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2331,35 +2421,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2375,8 +2468,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2384,34 +2477,37 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E44" s="3">
         <v>12600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2428,8 +2524,8 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2437,44 +2533,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E45" s="3">
         <v>14300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,44 +2589,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1808600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1049200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1216000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>484900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>292500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>329300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>401800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>269100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>182400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>230600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,44 +2645,47 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E47" s="3">
         <v>25200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,44 +2701,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E48" s="3">
         <v>45700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
         <v>19500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,43 +2757,46 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="E49" s="3">
         <v>9400</v>
       </c>
       <c r="F49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G49" s="3">
         <v>8600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,44 +2925,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
         <v>1900</v>
       </c>
       <c r="F52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G52" s="3">
         <v>1600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1300</v>
       </c>
       <c r="H52" s="3">
         <v>1300</v>
       </c>
       <c r="I52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,44 +3037,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1895200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1131300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1297600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>548200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>355200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>391600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>446500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>302000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>210800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>249600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,44 +3139,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E57" s="3">
         <v>41400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,41 +3193,44 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3240,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3115,44 +3249,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E59" s="3">
         <v>51200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,44 +3305,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E60" s="3">
         <v>92700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
         <v>10300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,44 +3417,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E62" s="3">
         <v>29000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,44 +3641,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E66" s="3">
         <v>121600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>128300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>11900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,44 +3943,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1109800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-946500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-713600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-573300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-444700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-398300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-249600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-110600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,44 +4167,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1671700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1009700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1169300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>465500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>294700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>337100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>393300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>251100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>198900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>235200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-163300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-232900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-140300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-128600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-111800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-65400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-83300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-97600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-41500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,17 +4420,18 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4248,8 +4447,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4260,8 +4459,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,17 +4754,20 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-169500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4566,8 +4783,8 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4578,8 +4795,8 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,17 +4834,18 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4640,8 +4861,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4652,8 +4873,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,17 +5000,20 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>742000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4799,8 +5029,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4811,8 +5041,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,17 +5302,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>821200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5085,8 +5331,8 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5097,8 +5343,8 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5112,17 +5358,20 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5138,8 +5387,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5150,8 +5399,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5165,17 +5414,20 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>753200</v>
+      </c>
+      <c r="E102" s="3">
         <v>571300</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5191,8 +5443,8 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5203,8 +5455,8 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,40 +745,43 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E8" s="3">
         <v>36900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -791,8 +795,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -800,37 +804,40 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E9" s="3">
         <v>10900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -856,38 +863,41 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E10" s="3">
         <v>26000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,53 +947,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E12" s="3">
         <v>142200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>203900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>120700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>102000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>83300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>58900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>85600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E17" s="3">
         <v>207500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>247200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>201300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>149500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>126900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>89300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,41 +1260,44 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-170600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-227100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-171600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-130300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-117300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-65300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-85900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,41 +1344,42 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E20" s="3">
         <v>7700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>32100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,20 +1401,23 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-161400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-231700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1390,8 +1427,8 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-62700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1423,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,25 +1475,25 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1510,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1479,53 +1519,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-162900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-233100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-139600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-128200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-111300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-65200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-83000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-97200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-41300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-24400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,8 +1578,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-162900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-233100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-139600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-128200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-111300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-65200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-83000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-97200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-41300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-163300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-232900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-140300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-128600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-111800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-65400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-83300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-97600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-41500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,41 +2050,44 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-32100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-163300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-232900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-140300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-128600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-111800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-65400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-83300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-97600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-41500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-163300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-232900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-140300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-128600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-111800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-65400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-83300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-97600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-41500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1398500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1766600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1013400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>442100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>258600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
         <v>127700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>229700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,44 +2455,47 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>744700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>205000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>200000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>251600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>301600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
         <v>50000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2505,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2424,38 +2514,41 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,8 +2564,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2480,37 +2573,40 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E44" s="3">
         <v>11100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2623,8 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2536,47 +2632,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,47 +2691,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1619100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1808600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1049200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1216000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>484900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>292500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>329300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>401800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>269100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3">
         <v>182400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>230600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,47 +2750,50 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E47" s="3">
         <v>24900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>3500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,47 +2809,50 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E48" s="3">
         <v>48700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
         <v>19500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,46 +2868,49 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
         <v>9600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>9400</v>
       </c>
       <c r="F49" s="3">
         <v>9400</v>
       </c>
       <c r="G49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H49" s="3">
         <v>8600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,47 +3045,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1900</v>
       </c>
       <c r="F52" s="3">
         <v>1900</v>
       </c>
       <c r="G52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H52" s="3">
         <v>1600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>1300</v>
       </c>
       <c r="J52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1728100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1895200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1131300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1297600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>548200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>355200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>391600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>446500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>302000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
         <v>210800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>249600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E57" s="3">
         <v>125600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,33 +3341,33 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3243,8 +3377,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3252,47 +3386,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E59" s="3">
         <v>68300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,47 +3445,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E60" s="3">
         <v>193900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3">
         <v>10300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,47 +3563,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E62" s="3">
         <v>29600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E66" s="3">
         <v>223500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>121600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>128300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
         <v>11900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1206200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-946500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-713600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-573300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-444700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-398300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-249600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>-110600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1587900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1671700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1009700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1169300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>465500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>294700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>337100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>393300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>251100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
         <v>198900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>235200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-163300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-232900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-140300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-128600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-111800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-65400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-83300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-97600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-41500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,20 +4619,21 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,14 +4643,14 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>2500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4462,8 +4661,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,20 +4971,23 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-65800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-169500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4780,14 +4997,14 @@
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>-151000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4798,8 +5015,8 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,20 +5055,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4858,14 +5079,14 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-4300</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4876,8 +5097,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,20 +5230,23 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-206400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>742000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5026,14 +5256,14 @@
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-64500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5044,8 +5274,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,20 +5548,23 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>821200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5328,14 +5574,14 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>218500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5346,8 +5592,8 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5361,20 +5607,23 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5384,14 +5633,14 @@
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>3300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5402,8 +5651,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -5417,20 +5666,23 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-368100</v>
+      </c>
+      <c r="E102" s="3">
         <v>753200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>571300</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5440,14 +5692,14 @@
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>6300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5458,8 +5710,8 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,80 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,43 +748,46 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E8" s="3">
         <v>43100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -798,8 +801,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -807,40 +810,43 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E9" s="3">
         <v>12200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -866,41 +872,44 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E10" s="3">
         <v>30900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,56 +960,57 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E12" s="3">
         <v>55100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>142200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>203900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>120700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>102000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>83300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>51200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>58900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>85600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>34600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1229,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>263400</v>
+      </c>
+      <c r="E17" s="3">
         <v>126300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>207500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>247200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>201300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>149500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>126900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,44 +1289,47 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-219200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-170600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-227100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-171600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-130300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-117300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-65300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-85900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,44 +1377,45 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>32100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,35 +1437,38 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-94400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-161400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-231700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-62700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,25 +1517,25 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1513,8 +1552,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1522,56 +1561,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-211300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-96100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-162900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-233100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-139600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-128200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-111300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-65200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-83000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-97200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-41300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1747,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-211300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-96100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-162900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-233100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-139600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-128200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-111300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-65200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-83000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-97200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-41300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1809,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-96400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-163300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-232900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-140300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-128600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-111800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-65400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-83300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-97600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-41500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,44 +2119,47 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>12900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-32100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,56 +2181,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-96400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-163300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-232900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-140300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-128600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-111800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-65400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-83300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-97600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-41500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2305,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-96400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-163300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-232900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-140300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-128600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-111800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-65400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-83300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-97600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-41500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2367,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2484,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>964100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1398500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1766600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1013400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>442100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>258600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>75900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
         <v>127700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>229700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,47 +2544,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E42" s="3">
         <v>170000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>744700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>205000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>200000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>251600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>301600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>200400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
         <v>50000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2597,8 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2517,41 +2606,44 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E43" s="3">
         <v>21000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,8 +2659,8 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2576,40 +2668,43 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E44" s="3">
         <v>12500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
@@ -2626,8 +2721,8 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2635,50 +2730,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2792,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1619100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1808600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1049200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1216000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>484900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>292500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>329300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>401800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>269100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
         <v>182400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>230600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,50 +2854,53 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E47" s="3">
         <v>44200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>3500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,50 +2916,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E48" s="3">
         <v>52600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
         <v>19500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,49 +2978,52 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E49" s="3">
         <v>9400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>9400</v>
       </c>
       <c r="G49" s="3">
         <v>9400</v>
       </c>
       <c r="H49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I49" s="3">
         <v>8600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2930,8 +3040,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3164,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1900</v>
       </c>
       <c r="G52" s="3">
         <v>1900</v>
       </c>
       <c r="H52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I52" s="3">
         <v>1600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1300</v>
       </c>
       <c r="J52" s="3">
         <v>1300</v>
       </c>
       <c r="K52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3288,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1728100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1895200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1131300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1297600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>548200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>355200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>391600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>446500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>302000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>210800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>249600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3400,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E57" s="3">
         <v>51400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>125600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
         <v>5700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3460,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,33 +3477,33 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3513,8 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3389,50 +3522,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E59" s="3">
         <v>60600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3584,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>192900</v>
+      </c>
+      <c r="E60" s="3">
         <v>112000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>193900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>98000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3">
         <v>10300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,50 +3708,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E62" s="3">
         <v>28100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3956,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E66" s="3">
         <v>140100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>121600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>128300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>11900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4290,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1418100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-946500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-713600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-573300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-444700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-398300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-249600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>-110600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4538,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1380000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1587900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1671700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1009700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1169300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>465500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>294700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>337100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>393300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>251100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
         <v>198900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>235200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4662,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4729,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-96400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-163300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-232900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-140300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-128600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-111800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-65400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-83300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-97600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-41500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,40 +4817,41 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4664,8 +4862,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,40 +5187,43 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-160900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-65800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-169500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-151000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5018,8 +5234,8 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -5033,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,40 +5275,41 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5100,8 +5320,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,40 +5459,43 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-281500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-206400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>742000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-64500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5277,8 +5506,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5292,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,40 +5793,43 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>821200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>218500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5595,8 +5840,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5610,40 +5855,43 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5654,8 +5902,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -5669,40 +5917,43 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-434300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-368100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>753200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>571300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5713,8 +5964,8 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
@@ -5726,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,84 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,46 +752,49 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E8" s="3">
         <v>44200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -804,8 +808,8 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -813,43 +817,46 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E9" s="3">
         <v>21700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -875,44 +882,47 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E10" s="3">
         <v>22500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,59 +974,60 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E12" s="3">
         <v>172100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>55100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>142200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>203900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>120700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>102000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>83300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>58900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>85600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,59 +1256,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E17" s="3">
         <v>263400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>126300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>207500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>247200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>201300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>149500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>126900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>89300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,47 +1319,50 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-219200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-83200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-170600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-227100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-171600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-130300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-117300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-65300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-85900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,47 +1411,48 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>7900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>32100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,38 +1474,41 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-209400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-94400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-161400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-231700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-62700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,13 +1539,16 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1520,25 +1560,25 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1555,8 +1595,8 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1564,59 +1604,62 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-211300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-96100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-162900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-233100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-139600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-128200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-111300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-65200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-83000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-97200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-41300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-24400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,8 +1669,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,59 +1799,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-211300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-96100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-162900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-233100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-139600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-128200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-111300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-65200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-83000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-97200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-41300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-24400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,59 +1864,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-211800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-96400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-163300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-232900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-140300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-128600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-111800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-65400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-83300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-97600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-41500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-24400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,47 +2189,50 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-32100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,59 +2254,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-211800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-96400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-163300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-232900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-140300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-128600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-111800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-65400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-83300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-97600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-41500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,59 +2384,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-211800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-96400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-163300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-232900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-140300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-128600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-111800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-65400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-83300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-97600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-41500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,64 +2449,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,53 +2571,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E41" s="3">
         <v>964100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1398500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1766600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1013400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>442100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>258600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>75900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
         <v>127700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>229700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,50 +2634,53 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>465300</v>
+      </c>
+      <c r="E42" s="3">
         <v>445000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>170000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>744700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>205000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>251600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>301600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
         <v>50000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2600,8 +2690,8 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2609,44 +2699,47 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E43" s="3">
         <v>54800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2755,8 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2671,43 +2764,46 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E44" s="3">
         <v>19000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
@@ -2724,8 +2820,8 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2733,53 +2829,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E45" s="3">
         <v>18000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
         <v>4700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,53 +2894,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1393300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1619100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1808600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1049200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1216000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>484900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>292500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>329300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>401800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>269100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <v>182400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>230600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,53 +2959,56 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E47" s="3">
         <v>39500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>3500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,53 +3024,56 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E48" s="3">
         <v>57300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>48700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>36400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
         <v>19500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,52 +3089,55 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E49" s="3">
         <v>9700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>9400</v>
       </c>
       <c r="H49" s="3">
         <v>9400</v>
       </c>
       <c r="I49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J49" s="3">
         <v>8600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,53 +3284,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1900</v>
       </c>
       <c r="H52" s="3">
         <v>1900</v>
       </c>
       <c r="I52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J52" s="3">
         <v>1600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1300</v>
       </c>
       <c r="L52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,53 +3414,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1610000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1728100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1895200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1131300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1297600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>548200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>355200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>391600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>446500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>302000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>210800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>249600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,53 +3531,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E57" s="3">
         <v>126200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>125600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
         <v>5700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,33 +3614,33 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3516,8 +3650,8 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3525,53 +3659,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E59" s="3">
         <v>66700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,53 +3724,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E60" s="3">
         <v>192900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>112000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>193900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>98000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3">
         <v>10300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,53 +3854,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E62" s="3">
         <v>37100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>26200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,53 +4114,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>192900</v>
+      </c>
+      <c r="E66" s="3">
         <v>230000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>140100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>223500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>121600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>128300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>11900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,53 +4464,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1418100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-946500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-713600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-573300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-444700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-398300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-249600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-110600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,53 +4724,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1380000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1587900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1671700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1009700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1169300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>465500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>294700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>337100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>393300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>251100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
         <v>198900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>235200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,64 +4854,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,59 +4924,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-211800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-96400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-163300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-232900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-140300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-128600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-111800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-65400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-83300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-97600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-41500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,43 +5016,44 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4865,8 +5064,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,43 +5404,46 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-153000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-160900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-65800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-169500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-151000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5237,8 +5454,8 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,43 +5496,44 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5323,8 +5544,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,43 +5689,46 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-281500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-206400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>742000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-64500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5509,8 +5739,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,43 +6039,46 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>821200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>218500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5843,8 +6089,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5858,43 +6104,46 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5905,8 +6154,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5920,43 +6169,46 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-434300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-368100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>753200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>571300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5967,8 +6219,8 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,88 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,49 +756,52 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E8" s="3">
         <v>46700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -811,8 +815,8 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -820,46 +824,49 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E9" s="3">
         <v>15600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
@@ -885,47 +892,50 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E10" s="3">
         <v>31100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,62 +988,63 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="E12" s="3">
         <v>53900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>172100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>55100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>142200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>203900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>120700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>102000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>83300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>58900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>85600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8800</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1190,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,62 +1283,63 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>126500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>263400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>207500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>247200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>201300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>149500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>89300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,50 +1349,53 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-79800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-219200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-83200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-170600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-227100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-171600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-130300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-117300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-65300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-85900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1417,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,50 +1445,51 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>32100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1477,41 +1511,44 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-80200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-209400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-94400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-161400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-231700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-62700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,16 +1579,19 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1563,25 +1603,25 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1598,8 +1638,8 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1607,62 +1647,65 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-82200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-211300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-96100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-162900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-233100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-139600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-128200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-111300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-65200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-83000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-97200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-24400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1715,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1737,8 +1783,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,62 +1851,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-82200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-211300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-96100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-162900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-233100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-139600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-128200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-111300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-65200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-83000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-97200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,62 +1919,65 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-82400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-211800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-96400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-163300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-232900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-140300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-128600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-111800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-65400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-83300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-97600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-24400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1987,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,50 +2259,53 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-32100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,62 +2327,65 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-82400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-211800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-96400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-163300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-232900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-140300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-128600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-111800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-65400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-83300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-97600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2395,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,62 +2463,65 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-82400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-211800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-96400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-163300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-232900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-140300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-128600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-111800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-65400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-83300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-97600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,67 +2531,70 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2604,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,56 +2658,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>680800</v>
+      </c>
+      <c r="E41" s="3">
         <v>847000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>964100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1398500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1766600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1013400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>442100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>258600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>75900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>68700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>91600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3">
         <v>127700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>229700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,53 +2724,56 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>575300</v>
+      </c>
+      <c r="E42" s="3">
         <v>465300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>445000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>170000</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>744700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>205000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>251600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>301600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3">
         <v>50000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2783,8 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2702,47 +2792,50 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E43" s="3">
         <v>44200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2758,8 +2851,8 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2767,46 +2860,49 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E44" s="3">
         <v>20300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
@@ -2823,8 +2919,8 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -2832,56 +2928,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3">
         <v>4700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,56 +2996,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1335600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1393300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1619100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1808600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1049200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1216000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>484900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>292500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>329300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>401800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>269100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3">
         <v>182400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>230600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,56 +3064,59 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3">
         <v>29200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>44200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,56 +3132,59 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E48" s="3">
         <v>62200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>57300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>52600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>48700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
         <v>19500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,55 +3200,58 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>9400</v>
       </c>
       <c r="I49" s="3">
         <v>9400</v>
       </c>
       <c r="J49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K49" s="3">
         <v>8600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3157,8 +3268,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,56 +3404,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>6700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1900</v>
       </c>
       <c r="I52" s="3">
         <v>1900</v>
       </c>
       <c r="J52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1300</v>
       </c>
       <c r="L52" s="3">
         <v>1300</v>
       </c>
       <c r="M52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,56 +3540,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1610000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1728100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1895200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1131300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1297600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>548200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>355200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>391600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>446500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>302000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
         <v>210800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>249600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,56 +3662,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E57" s="3">
         <v>98200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>126200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>125600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3728,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3617,33 +3751,33 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3653,8 +3787,8 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3662,56 +3796,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E59" s="3">
         <v>56800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,56 +3864,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E60" s="3">
         <v>154900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>192900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>112000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>193900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3">
         <v>10300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3932,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,56 +4000,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E62" s="3">
         <v>38000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,56 +4272,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E66" s="3">
         <v>192900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>230000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>140100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>223500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>121600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>128300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3">
         <v>11900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,56 +4638,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1638400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1418100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-946500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-713600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-573300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-444700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-398300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>-249600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
         <v>-110600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,56 +4910,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1212200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1308000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1380000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1587900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1671700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1009700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1169300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>465500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>294700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>337100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>393300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>251100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3">
         <v>198900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>235200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,67 +5046,70 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,62 +5119,65 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-82400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-211800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-96400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-163300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-232900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-140300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-128600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-111800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-65400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-83300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-97600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5187,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,46 +5215,47 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5067,8 +5266,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,46 +5621,49 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-87100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-153000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-160900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-65800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-169500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-151000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5457,8 +5674,8 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5472,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,46 +5717,47 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5547,8 +5768,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5562,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,46 +5919,49 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-281500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-206400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>742000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-64500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5742,8 +5972,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5757,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,46 +6285,49 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>821200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>218500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6092,8 +6338,8 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -6107,46 +6353,49 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6157,8 +6406,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -6172,46 +6421,49 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-117100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-434300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-368100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>753200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>571300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6222,8 +6474,8 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
@@ -6235,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,156 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F8" s="3">
         <v>48200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>46700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>44200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>43100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>36900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>29700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -818,61 +825,67 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>-17400</v>
+        <v>20900</v>
       </c>
       <c r="E9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17400</v>
+      </c>
+      <c r="G9" s="3">
         <v>15600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>21700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>12200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>10900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -895,53 +908,59 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>65600</v>
+        <v>41700</v>
       </c>
       <c r="E10" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30800</v>
+      </c>
+      <c r="G10" s="3">
         <v>31100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>22500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>30900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>26000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>12600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>17900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>14200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +982,14 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,76 +1014,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>-66100</v>
+        <v>66900</v>
       </c>
       <c r="E12" s="3">
+        <v>99500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>66100</v>
+      </c>
+      <c r="G12" s="3">
         <v>53900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>172100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>55100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>142200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>203900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>120700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>102000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>83300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>51200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>58900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>85600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>30000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>34600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>18500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>20900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>8800</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1158,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,8 +1232,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1306,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,124 +1335,132 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>159900</v>
       </c>
       <c r="E17" s="3">
+        <v>186100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>146900</v>
+      </c>
+      <c r="G17" s="3">
         <v>126500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>263400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>126300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>207500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>247200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>201300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>149500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>126900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>70200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>89300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>34200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>41000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>26500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>24900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>11200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-97300</v>
       </c>
       <c r="E18" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-79800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-219200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-83200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-170600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-227100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-171600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-130300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-117300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-65300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-85900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1479,14 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,56 +1511,58 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>35500</v>
       </c>
       <c r="E20" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-12900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>32100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1514,47 +1581,53 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-59600</v>
       </c>
       <c r="E21" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-136100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-80200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-209400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-94400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-161400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-231700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-62700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,8 +1655,14 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,11 +1672,11 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1606,28 +1685,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1641,85 +1720,97 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-137900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-82200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-211300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-96100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-162900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-233100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-139600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-128200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-111300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-65200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-83000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-97200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-41300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-25700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-24400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-11800</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1786,8 +1877,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1951,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-61800</v>
       </c>
       <c r="E26" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-82200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-211300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-96100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-162900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-233100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-139600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-128200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-111300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-65200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-83000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-97200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-41300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-25700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-24400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-61800</v>
       </c>
       <c r="E27" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-82400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-211800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-96400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-163300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-232900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-140300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-128600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-111800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-65400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-83300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-97600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-41500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-26000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-24400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2173,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2247,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2321,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,56 +2395,62 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-35500</v>
       </c>
       <c r="E32" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>39200</v>
+      </c>
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>12900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-32100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,76 +2469,88 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-61800</v>
       </c>
       <c r="E33" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-82400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-211800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-96400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-163300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-232900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-140300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-128600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-111800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-65400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-83300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-97600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-41500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-26000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-24400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2617,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-61800</v>
       </c>
       <c r="E35" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-82400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-211800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-96400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-163300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-232900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-140300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-128600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-111800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-65400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-83300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-97600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-41500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-26000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-24400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2802,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,62 +2830,64 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1008500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1119500</v>
+      </c>
+      <c r="F41" s="3">
         <v>680800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>847000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>964100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1398500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1766600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1013400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>442100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>258600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>75900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>68700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>91600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>63000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3">
         <v>127700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>229700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,121 +2900,133 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>575300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>465300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>445000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>170000</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>744700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>205000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>200000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>251600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>301600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>200400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3">
         <v>50000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38000</v>
+        <v>48600</v>
       </c>
       <c r="E43" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>38200</v>
+      </c>
+      <c r="G43" s="3">
         <v>44200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>54800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>21000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>18000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2854,61 +3039,67 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F44" s="3">
         <v>23300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>20300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>12500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>11100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>12600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>13100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>6000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
@@ -2922,71 +3113,77 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18000</v>
+        <v>35700</v>
       </c>
       <c r="E45" s="3">
-        <v>16500</v>
+        <v>22200</v>
       </c>
       <c r="F45" s="3">
         <v>18000</v>
       </c>
       <c r="G45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I45" s="3">
         <v>17100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>12900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3">
         <v>4700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,62 +3196,68 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1124300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1335600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1393300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1500900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1619100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1808600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1049200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1216000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>484900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>292500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>329300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>401800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>269100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3">
         <v>182400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>230600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,62 +3270,68 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F47" s="3">
         <v>2900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>29200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>39500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>44200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>24900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>25200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>23400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>18200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>16100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>17100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>14000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>11200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
         <v>3500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>6700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3135,62 +3344,68 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F48" s="3">
         <v>65000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>62200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>57300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>52600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>48700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>45700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>46900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>34900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>36400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>35300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>29600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>20500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3">
         <v>19500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>11900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,61 +3418,67 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F49" s="3">
         <v>9000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>9500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>9700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>9600</v>
       </c>
       <c r="I49" s="3">
         <v>9400</v>
       </c>
       <c r="J49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K49" s="3">
         <v>9400</v>
       </c>
-      <c r="K49" s="3">
-        <v>8600</v>
-      </c>
       <c r="L49" s="3">
-        <v>8800</v>
+        <v>9400</v>
       </c>
       <c r="M49" s="3">
         <v>8600</v>
       </c>
       <c r="N49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="O49" s="3">
+        <v>8600</v>
+      </c>
+      <c r="P49" s="3">
         <v>700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3271,8 +3492,14 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3566,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,62 +3640,68 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3714,14 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,62 +3788,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1220100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1298500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1418800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1500900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1610000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1728100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1895200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1131300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1297600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>548200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>355200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>391600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>446500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>302000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3">
         <v>210800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>249600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3862,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3894,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,62 +3922,64 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>90100</v>
+      </c>
+      <c r="F57" s="3">
         <v>108400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>98200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>126200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>51400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>125600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>41400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>62600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>22700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>20500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>27700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>37400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
         <v>5700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,130 +3992,142 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F59" s="3">
         <v>60400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>56800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>66700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>60600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>68300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>51200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3">
         <v>3800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,62 +4140,68 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>155500</v>
+      </c>
+      <c r="F60" s="3">
         <v>168900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>154900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>192900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>112000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>193900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>92700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>98000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>56600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>46600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>41100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>46000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>48800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3">
         <v>10300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4214,14 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4003,62 +4288,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F62" s="3">
         <v>37700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>38000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>37100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>28100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>29600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>29000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>30300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>26200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>13500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4362,14 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4436,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4510,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,62 +4584,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>192600</v>
+      </c>
+      <c r="F66" s="3">
         <v>206600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>192900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>230000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>140100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>223500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>121600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>128300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>82700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>60500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>54500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>53100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>50900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3">
         <v>11900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4658,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4690,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4760,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4834,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4908,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,62 +4982,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1861400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1799600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1638400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1500500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1418100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-946500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-713600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-573300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-444700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-398300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-249600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3">
         <v>-110600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +5056,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +5130,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5204,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,62 +5278,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1045600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1105900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1212200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1308000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1380000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1587900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1671700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1009700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1169300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>465500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>294700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>337100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>393300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>251100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3">
         <v>198900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>235200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5352,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5426,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-61800</v>
       </c>
       <c r="E81" s="3">
+        <v>-161200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-82400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-211800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-96400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-163300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-232900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-140300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-128600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-111800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-65400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-83300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-97600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-41500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-26000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-24400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,52 +5611,54 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
       </c>
       <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5269,11 +5666,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
@@ -5284,8 +5681,14 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5755,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5829,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5903,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5977,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,52 +6051,58 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>219200</v>
+        <v>-109300</v>
       </c>
       <c r="E89" s="3">
+        <v>-126300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="G89" s="3">
         <v>-87100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-153000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-160900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-65800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-169500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-151000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5677,11 +6110,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
@@ -5692,8 +6125,14 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,52 +6157,54 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5771,11 +6212,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -5786,8 +6227,14 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6301,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,52 +6375,58 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>568300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-113700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-30100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-281500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-206400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>742000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-64500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5975,11 +6434,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -5990,8 +6449,14 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6481,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6551,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6625,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6699,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,52 +6773,58 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>821200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>218500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6341,11 +6832,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6356,52 +6847,58 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6409,11 +6906,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
@@ -6424,52 +6921,58 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-111000</v>
       </c>
       <c r="E102" s="3">
+        <v>438700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-166100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-117100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-434300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-368100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>753200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>571300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6477,11 +6980,11 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
@@ -6490,6 +6993,12 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,99 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,58 +767,61 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E8" s="3">
         <v>62600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>46700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -831,8 +835,8 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -840,55 +844,58 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E9" s="3">
         <v>20900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -914,56 +921,59 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E10" s="3">
         <v>41700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>30900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,71 +1029,72 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E12" s="3">
         <v>66900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>99500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>66100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>53900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>172100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>55100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>142200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>203900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>120700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>102000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>83300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>58900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>85600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>30000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>34600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8800</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1181,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1258,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,71 +1363,72 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E17" s="3">
         <v>159900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>186100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>146900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>126500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>263400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>126300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>207500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>247200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>201300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>149500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>126900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>70200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>89300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,59 +1438,62 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-97300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-128600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-98700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-79800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-219200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-83200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-170600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-227100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-171600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-130300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-117300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-65300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-85900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,59 +1546,60 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E20" s="3">
         <v>35500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-32600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-39200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,50 +1621,53 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-59600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-159000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-136100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-80200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-209400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-94400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-161400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-231700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-62700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1698,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,8 +1718,8 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1691,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1726,8 +1766,8 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1735,71 +1775,74 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-61800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-161200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-137900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-82200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-211300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-96100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-162900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-233100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-139600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-128200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-111300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-65200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-97200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-34100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-41300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-25700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-24400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11800</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1852,11 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1883,8 +1929,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,71 +2006,74 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-61800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-161200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-137900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-82200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-211300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-96100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-162900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-233100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-139600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-128200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-111300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-65200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-97200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-34100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-41300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-25700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-24400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,71 +2083,74 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-61800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-161200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-137900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-82400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-211800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-96400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-163300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-232900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-140300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-128600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-111800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-65400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-83300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-97600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-34200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-41500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-26000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-24400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11800</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2105,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,59 +2468,62 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>32600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>39200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,71 +2545,74 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-61800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-161200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-137900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-82400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-211800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-96400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-163300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-232900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-140300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-128600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-111800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-65400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-83300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-97600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-34200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-41500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-26000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-24400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11800</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,71 +2699,74 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-61800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-161200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-137900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-82400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-211800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-96400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-163300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-232900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-140300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-128600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-111800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-65400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-83300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-97600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-34200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-41500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-26000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-24400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11800</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,76 +2776,79 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,65 +2918,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>879800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1008500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1119500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>680800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>847000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>964100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1398500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1766600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1013400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>442100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>258600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>75900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>68700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>91600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3">
         <v>127700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>229700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,62 +2993,65 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>50600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>575300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>465300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>445000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>170000</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>744700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>205000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>251600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>301600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3">
         <v>50000</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2971,8 +3061,8 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -2980,56 +3070,59 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E43" s="3">
         <v>48600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,8 +3138,8 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3054,55 +3147,58 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E44" s="3">
         <v>31600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
@@ -3119,8 +3215,8 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3128,65 +3224,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E45" s="3">
         <v>35700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3">
         <v>4700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3202,65 +3301,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1072300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1124300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1209800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1335600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1393300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1619100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1808600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1049200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1216000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>484900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>292500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>329300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>401800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>269100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3">
         <v>182400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>230600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,65 +3378,68 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E47" s="3">
         <v>6400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>44200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
         <v>3500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,65 +3455,68 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E48" s="3">
         <v>77400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>70800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>57300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3">
         <v>19500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3424,8 +3532,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3436,52 +3547,52 @@
         <v>8400</v>
       </c>
       <c r="F49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G49" s="3">
         <v>9000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>9400</v>
       </c>
       <c r="L49" s="3">
         <v>9400</v>
       </c>
       <c r="M49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N49" s="3">
         <v>8600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,65 +3763,68 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1900</v>
       </c>
       <c r="L52" s="3">
         <v>1900</v>
       </c>
       <c r="M52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N52" s="3">
         <v>1600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1300</v>
       </c>
       <c r="O52" s="3">
         <v>1300</v>
       </c>
       <c r="P52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>5400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,65 +3917,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1170100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1220100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1298500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1418800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1610000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1728100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1895200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1131300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1297600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>548200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>355200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>391600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>446500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>302000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3">
         <v>210800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>249600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,65 +4054,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E57" s="3">
         <v>66000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>108400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>98200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>126200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>125600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>41400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3">
         <v>5700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4024,36 +4158,36 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4063,8 +4197,8 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4072,65 +4206,68 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E59" s="3">
         <v>73900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>68300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3">
         <v>3800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4146,65 +4283,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E60" s="3">
         <v>139800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>155500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>168900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>154900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>192900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>112000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>193900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3">
         <v>10300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4360,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4294,65 +4437,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E62" s="3">
         <v>34700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>38000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3">
         <v>1600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,65 +4745,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E66" s="3">
         <v>174500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>192600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>192900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>230000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>140100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>223500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>121600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>128300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3">
         <v>11900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,65 +5159,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1910500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1861400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1799600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1638400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1500500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1418100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-946500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-713600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-573300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-444700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-398300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
         <v>-249600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3">
         <v>-110600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,65 +5467,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1001200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1045600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1105900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1212200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1308000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1380000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1587900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1671700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1009700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1169300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>465500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>294700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>337100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>393300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>251100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3">
         <v>198900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>235200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,76 +5621,79 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5511,71 +5703,74 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-61800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-161200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-137900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-82400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-211800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-96400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-163300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-232900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-140300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-128600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-111800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-65400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-83300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-97600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-34200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-41500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-26000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-24400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11800</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5585,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,55 +5811,56 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5672,8 +5871,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
@@ -5687,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,55 +6271,58 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-109300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-126300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-44900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-87100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-153000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-160900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-65800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-169500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>-151000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6116,8 +6333,8 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
@@ -6131,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,55 +6379,56 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-6700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-9700</v>
-      </c>
       <c r="H91" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6218,8 +6439,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
@@ -6233,8 +6454,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,55 +6608,58 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>568300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-113700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-281500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-206400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>742000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-64500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6440,8 +6670,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -6455,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,55 +7022,58 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>821200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>218500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6838,8 +7084,8 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6853,55 +7099,58 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
         <v>3300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6912,8 +7161,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
@@ -6927,55 +7176,58 @@
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-128400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-111000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>438700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-166100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-117100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-434300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-368100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>753200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>571300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6986,8 +7238,8 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
@@ -6999,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,103 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,61 +771,64 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E8" s="3">
         <v>62800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>62600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>57500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>46700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>44200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -838,8 +842,8 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -847,58 +851,61 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E9" s="3">
         <v>21300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
@@ -924,59 +931,62 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E10" s="3">
         <v>41500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1011,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,74 +1043,75 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E12" s="3">
         <v>48500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>66900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>99500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>66100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>53900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>172100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>55100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>142200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>203900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>120700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>102000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>83300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>51200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>58900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>85600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>30000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>34600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>18500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>20900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8800</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,8 +1201,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,8 +1281,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,74 +1390,75 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E17" s="3">
         <v>132300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>159900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>186100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>146900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>126500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>263400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>126300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>207500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>247200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>201300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>149500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>126900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>89300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>34200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>41000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11200</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,62 +1468,65 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-69500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-97300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-128600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-98700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-79800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-219200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-83200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-170600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-227100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-171600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-130300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-117300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-65300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-85900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1548,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,62 +1580,63 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E20" s="3">
         <v>20400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-32600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-39200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,53 +1658,56 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-46500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-59600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-159000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-136100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-80200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-209400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-94400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-161400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-231700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-62700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,8 +1761,8 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1734,25 +1774,25 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1769,8 +1809,8 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1778,74 +1818,77 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-49100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-161200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-137900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-82200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-211300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-96100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-162900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-233100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-139600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-128200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-111300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-83000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-97200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-34100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-41300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-25700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-24400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11800</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1855,8 +1898,11 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1932,8 +1978,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,74 +2058,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-161200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-137900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-82200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-211300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-96100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-162900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-233100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-139600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-128200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-111300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-83000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-97200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-34100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-41300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-25700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-24400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,74 +2138,77 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-161200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-137900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-82400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-211800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-96400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-163300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-232900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-140300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-128600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-111800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-83300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-97600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-34200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-41500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-26000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-24400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11800</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2218,11 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,62 +2538,65 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>32600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>39200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,74 +2618,77 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-161200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-137900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-82400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-211800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-96400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-163300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-232900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-140300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-128600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-111800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-83300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-97600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-34200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-41500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-26000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-24400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2625,8 +2698,11 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,74 +2778,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-161200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-137900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-82400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-211800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-96400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-163300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-232900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-140300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-128600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-111800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-83300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-97600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-34200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-41500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-26000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-24400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2779,79 +2858,82 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2943,11 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,68 +3005,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>859200</v>
+      </c>
+      <c r="E41" s="3">
         <v>879800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1008500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1119500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>680800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>847000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>964100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1398500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1766600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1013400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>442100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>258600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>75900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>68700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>91600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3">
         <v>127700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>229700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,65 +3083,68 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E42" s="3">
         <v>50600</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>575300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>465300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>445000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>170000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>744700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>205000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>200000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>251600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>301600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>200400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3">
         <v>50000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3154,8 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3073,59 +3163,62 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E43" s="3">
         <v>60700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3141,8 +3234,8 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3150,58 +3243,61 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E44" s="3">
         <v>38400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>31600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
@@ -3218,8 +3314,8 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3227,68 +3323,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E45" s="3">
         <v>42800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3">
         <v>4700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3304,68 +3403,71 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1017500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1072300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1124300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1209800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1335600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1393300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1619100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1808600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1049200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1216000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>484900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>292500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>329300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>401800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>269100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3">
         <v>182400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>230600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,68 +3483,71 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E47" s="3">
         <v>6900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>44200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>14000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3">
         <v>3500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3458,68 +3563,71 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E48" s="3">
         <v>78500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>77400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>57300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>52600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3">
         <v>19500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,13 +3643,16 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="E49" s="3">
         <v>8400</v>
@@ -3550,52 +3661,52 @@
         <v>8400</v>
       </c>
       <c r="G49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H49" s="3">
         <v>9000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>9400</v>
       </c>
       <c r="M49" s="3">
         <v>9400</v>
       </c>
       <c r="N49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O49" s="3">
         <v>8600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3612,8 +3723,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,8 +3883,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3775,59 +3895,59 @@
         <v>4000</v>
       </c>
       <c r="E52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1900</v>
       </c>
       <c r="M52" s="3">
         <v>1900</v>
       </c>
       <c r="N52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O52" s="3">
         <v>1600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1300</v>
       </c>
       <c r="P52" s="3">
         <v>1300</v>
       </c>
       <c r="Q52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
         <v>5400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +3963,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,68 +4043,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1106400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1170100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1220100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1298500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1418800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1610000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1728100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1895200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1131300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1297600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>548200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>355200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>391600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>446500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>302000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3">
         <v>210800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>249600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4123,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,68 +4185,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E57" s="3">
         <v>66400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>108400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>98200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>126200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>125600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3">
         <v>5700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4132,8 +4263,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4161,36 +4295,36 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,8 +4334,8 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4209,68 +4343,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E59" s="3">
         <v>58200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,68 +4423,71 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E60" s="3">
         <v>124600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>139800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>155500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>168900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>154900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>192900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>193900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3">
         <v>10300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4503,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4440,68 +4583,71 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E62" s="3">
         <v>44300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>37100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3">
         <v>1600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4517,8 +4663,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,68 +4903,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E66" s="3">
         <v>168800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>174500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>192600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>192900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>230000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>140100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>223500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>121600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>128300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3">
         <v>11900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +4983,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,68 +5333,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2031400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1910500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1861400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1799600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1638400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1500500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1418100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-946500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-713600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-573300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-444700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-398300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3">
         <v>-249600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3">
         <v>-110600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5239,8 +5413,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,68 +5653,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>932300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1001200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1045600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1105900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1212200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1308000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1380000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1587900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1671700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1009700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1169300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>465500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>294700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>337100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>393300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>251100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3">
         <v>198900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>235200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5547,8 +5733,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,79 +5813,82 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5706,74 +5898,77 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-161200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-137900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-82400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-211800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-96400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-163300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-232900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-140300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-128600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-111800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-83300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-97600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-34200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-41500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-26000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-24400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5783,8 +5978,11 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,58 +6010,59 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5874,8 +6073,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5889,8 +6088,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,58 +6488,61 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-69300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-109300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-126300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-44900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-87100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-153000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-160900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-65800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-169500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6336,8 +6553,8 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
@@ -6351,8 +6568,11 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,58 +6600,59 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6442,8 +6663,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
@@ -6457,8 +6678,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,58 +6838,61 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>568300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-113700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-281500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-206400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>742000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-64500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6673,8 +6903,8 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
@@ -6688,8 +6918,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,58 +7268,61 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>821200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>218500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7087,8 +7333,8 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
@@ -7102,58 +7348,61 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3">
         <v>3300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -7164,8 +7413,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
@@ -7179,58 +7428,61 @@
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-128400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-111000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>438700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-166100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-117100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-434300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-368100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>753200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>571300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
         <v>6300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -7241,8 +7493,8 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
@@ -7254,6 +7506,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZLAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="92">
   <si>
     <t>ZLAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
@@ -774,64 +775,67 @@
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E8" s="3">
         <v>68900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>62800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>62600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
@@ -845,8 +849,8 @@
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -854,61 +858,64 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E9" s="3">
         <v>23800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
@@ -934,62 +941,65 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E10" s="3">
         <v>45100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1014,8 +1024,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,77 +1057,78 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E12" s="3">
         <v>76700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>66900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>99500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>66100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>53900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>172100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>55100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>142200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>203900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>120700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>102000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>83300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>51200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>58900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>85600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>30000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>34600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>18500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>20900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8800</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,8 +1221,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,8 +1304,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,77 +1417,78 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E17" s="3">
         <v>158400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>159900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>186100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>146900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>126500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>263400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>207500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>247200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>201300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>149500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>126900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>89300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>34200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>41000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11200</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,65 +1498,68 @@
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-89500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-69500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-97300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-128600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-98700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-79800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-219200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-83200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-170600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-227100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-171600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-130300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-117300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-65300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-85900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-34200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1581,11 @@
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,65 +1614,66 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-31400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>35500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-32600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,56 +1695,59 @@
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-118900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-46500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-59600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-159000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-136100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-80200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-209400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-94400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-161400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-231700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-62700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1778,11 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1764,8 +1804,8 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1777,25 +1817,25 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1812,8 +1852,8 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1821,77 +1861,80 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-120900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-49100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-161200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-137900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-82200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-211300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-96100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-162900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-233100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-139600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-128200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-111300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-65200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-83000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-97200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-34100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-41300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-25700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-24400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1901,8 +1944,11 @@
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1981,8 +2027,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,77 +2110,80 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-120900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-161200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-137900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-82200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-211300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-96100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-162900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-233100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-139600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-128200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-111300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-65200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-83000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-97200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-34100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-41300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-25700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-24400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,77 +2193,80 @@
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-120900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-161200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-137900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-82400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-211800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-96400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-163300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-232900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-140300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-128600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-65400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-83300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-97600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-34200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-41500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-26000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-24400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2276,11 @@
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,8 +2442,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,65 +2608,68 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E32" s="3">
         <v>31400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-20400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-35500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>32600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2621,77 +2691,80 @@
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-120900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-161200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-137900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-82400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-211800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-96400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-163300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-232900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-140300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-128600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-65400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-83300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-97600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-34200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-41500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-26000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-24400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2701,8 +2774,11 @@
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,77 +2857,80 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-120900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-161200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-137900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-82400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-211800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-96400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-163300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-232900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-140300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-128600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-65400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-83300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-97600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-34200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-41500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-26000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-24400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,82 +2940,85 @@
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2946,8 +3028,11 @@
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,71 +3092,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>788800</v>
+      </c>
+      <c r="E41" s="3">
         <v>859200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>879800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1008500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1119500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>680800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>847000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>964100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1398500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1766600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1013400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>442100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>258600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>75900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>68700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>91600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3">
         <v>127700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>229700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3086,68 +3173,71 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E42" s="3">
         <v>15500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>50600</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>575300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>465300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>445000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>170000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>744700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>205000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>200000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>251600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>301600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>200400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3">
         <v>50000</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,8 +3247,8 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3166,62 +3256,65 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E43" s="3">
         <v>68100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3237,8 +3330,8 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3246,61 +3339,64 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E44" s="3">
         <v>36400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>38400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>31600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
@@ -3317,8 +3413,8 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3326,71 +3422,74 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3">
         <v>4700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3406,71 +3505,74 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>959700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1017500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1072300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1124300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1209800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1335600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1393300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1619100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1808600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1049200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1216000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>484900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>292500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>329300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>401800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>269100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3">
         <v>182400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>230600</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3486,71 +3588,74 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E47" s="3">
         <v>5100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>39500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>14000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3">
         <v>3500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3566,71 +3671,74 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E48" s="3">
         <v>74900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>78500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>77400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>65000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>57300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3">
         <v>19500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,16 +3754,19 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>8400</v>
       </c>
       <c r="F49" s="3">
         <v>8400</v>
@@ -3664,52 +3775,52 @@
         <v>8400</v>
       </c>
       <c r="H49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I49" s="3">
         <v>9000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>9400</v>
       </c>
       <c r="N49" s="3">
         <v>9400</v>
       </c>
       <c r="O49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="P49" s="3">
         <v>8600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
@@ -3726,8 +3837,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,71 +4003,74 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
         <v>4000</v>
       </c>
       <c r="F52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1900</v>
       </c>
       <c r="N52" s="3">
         <v>1900</v>
       </c>
       <c r="O52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P52" s="3">
         <v>1600</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1300</v>
       </c>
       <c r="R52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3">
         <v>5400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3966,8 +4086,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,71 +4169,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1043700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1106400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1170100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1220100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1298500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1418800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1610000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1728100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1895200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1131300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1297600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>548200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>355200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>391600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>446500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>302000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3">
         <v>210800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>249600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4252,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,71 +4316,72 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E57" s="3">
         <v>67000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>108400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>98200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>126200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>125600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>20500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3">
         <v>5700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9000</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,8 +4397,11 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4298,36 +4432,36 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4337,8 +4471,8 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4346,71 +4480,74 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E59" s="3">
         <v>66300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4426,71 +4563,74 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E60" s="3">
         <v>133400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>124600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>139800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>155500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>168900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>154900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>192900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>112000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>193900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3">
         <v>10300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4646,11 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4586,71 +4729,74 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E62" s="3">
         <v>40700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3">
         <v>1600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4812,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,71 +5061,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E66" s="3">
         <v>174100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>174500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>192600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>192900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>230000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>140100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>223500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>121600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>128300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>82700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3">
         <v>11900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14500</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4986,8 +5144,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,71 +5507,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2100600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2031400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1910500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1861400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1799600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1638400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1500500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1418100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1206200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1109800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-946500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-713600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-573300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-444700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-398300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3">
         <v>-249600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3">
         <v>-110600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5416,8 +5590,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,71 +5839,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>881000</v>
+      </c>
+      <c r="E76" s="3">
         <v>932300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1001200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1045600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1105900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1212200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1308000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1587900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1671700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1009700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1169300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>465500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>294700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>337100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>393300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>251100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3">
         <v>198900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>235200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5736,8 +5922,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,82 +6005,85 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5901,77 +6093,80 @@
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-120900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-161200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-137900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-82400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-211800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-96400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-163300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-232900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-140300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-128600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-65400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-83300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-97600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-34200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-41500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-26000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-24400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,8 +6176,11 @@
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,61 +6209,62 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>2500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -6076,8 +6275,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -6091,8 +6290,11 @@
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,61 +6705,64 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-58700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-69300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-109300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-126300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-44900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-87100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-153000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-160900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-65800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-169500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3">
         <v>-151000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6556,8 +6773,8 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
+      <c r="X89" s="3">
+        <v>0</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
@@ -6571,8 +6788,11 @@
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,61 +6821,62 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6666,8 +6887,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
@@ -6681,8 +6902,11 @@
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,61 +7068,64 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>42700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>568300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-113700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-281500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-206400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>742000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
         <v>-64500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6906,8 +7136,8 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
@@ -6921,8 +7151,11 @@
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,61 +7514,64 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>821200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>218500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7336,8 +7582,8 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
@@ -7351,61 +7597,64 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3">
         <v>3300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -7416,8 +7665,8 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>3</v>
@@ -7431,61 +7680,64 @@
       <c r="AB101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-128400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-111000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>438700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-166100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-117100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-434300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-368100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>753200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>571300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3">
         <v>6300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -7496,8 +7748,8 @@
       <c r="W102" s="3">
         <v>0</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
+      <c r="X102" s="3">
+        <v>0</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
@@ -7509,6 +7761,9 @@
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
